--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H2">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N2">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q2">
-        <v>557.6033432970288</v>
+        <v>568.9020619793635</v>
       </c>
       <c r="R2">
-        <v>557.6033432970288</v>
+        <v>5120.118557814271</v>
       </c>
       <c r="S2">
-        <v>0.0897085929022598</v>
+        <v>0.08577957776788628</v>
       </c>
       <c r="T2">
-        <v>0.0897085929022598</v>
+        <v>0.08577957776788628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H3">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N3">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q3">
-        <v>123.1595208926588</v>
+        <v>126.2356546485556</v>
       </c>
       <c r="R3">
-        <v>123.1595208926588</v>
+        <v>1136.120891837</v>
       </c>
       <c r="S3">
-        <v>0.01981420566180411</v>
+        <v>0.01903392847150306</v>
       </c>
       <c r="T3">
-        <v>0.01981420566180411</v>
+        <v>0.01903392847150306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H4">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N4">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q4">
-        <v>20.29228952741135</v>
+        <v>21.40733219036356</v>
       </c>
       <c r="R4">
-        <v>20.29228952741135</v>
+        <v>192.665989713272</v>
       </c>
       <c r="S4">
-        <v>0.003264673288193741</v>
+        <v>0.003227817297826699</v>
       </c>
       <c r="T4">
-        <v>0.003264673288193741</v>
+        <v>0.003227817297826698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H5">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N5">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q5">
-        <v>14.19213182505417</v>
+        <v>16.50788966142933</v>
       </c>
       <c r="R5">
-        <v>14.19213182505417</v>
+        <v>148.571006952864</v>
       </c>
       <c r="S5">
-        <v>0.00228326496175758</v>
+        <v>0.002489074833143475</v>
       </c>
       <c r="T5">
-        <v>0.00228326496175758</v>
+        <v>0.002489074833143475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H6">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N6">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O6">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P6">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q6">
-        <v>9.399990142943485</v>
+        <v>9.704195372488888</v>
       </c>
       <c r="R6">
-        <v>9.399990142943485</v>
+        <v>87.33775835239999</v>
       </c>
       <c r="S6">
-        <v>0.001512293459419552</v>
+        <v>0.001463207531245278</v>
       </c>
       <c r="T6">
-        <v>0.001512293459419552</v>
+        <v>0.001463207531245278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H7">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N7">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q7">
-        <v>2960.595528835921</v>
+        <v>3002.70750857563</v>
       </c>
       <c r="R7">
-        <v>2960.595528835921</v>
+        <v>27024.36757718067</v>
       </c>
       <c r="S7">
-        <v>0.4763078669403081</v>
+        <v>0.4527510084071773</v>
       </c>
       <c r="T7">
-        <v>0.4763078669403081</v>
+        <v>0.4527510084071773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H8">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N8">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q8">
-        <v>653.9156037558907</v>
+        <v>666.2811991652222</v>
       </c>
       <c r="R8">
-        <v>653.9156037558907</v>
+        <v>5996.530792487</v>
       </c>
       <c r="S8">
-        <v>0.1052035454861398</v>
+        <v>0.1004624939136657</v>
       </c>
       <c r="T8">
-        <v>0.1052035454861398</v>
+        <v>0.1004624939136658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H9">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N9">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q9">
-        <v>107.7419322658106</v>
+        <v>112.9894957366302</v>
       </c>
       <c r="R9">
-        <v>107.7419322658106</v>
+        <v>1016.905461629672</v>
       </c>
       <c r="S9">
-        <v>0.01733378620541703</v>
+        <v>0.01703666041000587</v>
       </c>
       <c r="T9">
-        <v>0.01733378620541703</v>
+        <v>0.01703666041000587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H10">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N10">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q10">
-        <v>75.35313862622104</v>
+        <v>87.12987269662933</v>
       </c>
       <c r="R10">
-        <v>75.35313862622104</v>
+        <v>784.1688542696641</v>
       </c>
       <c r="S10">
-        <v>0.01212299767960023</v>
+        <v>0.01313752259023744</v>
       </c>
       <c r="T10">
-        <v>0.01212299767960023</v>
+        <v>0.01313752259023744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H11">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N11">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O11">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P11">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q11">
-        <v>49.90925740105493</v>
+        <v>51.21946685915555</v>
       </c>
       <c r="R11">
-        <v>49.90925740105493</v>
+        <v>460.9752017324</v>
       </c>
       <c r="S11">
-        <v>0.008029523689316068</v>
+        <v>0.007722918467526984</v>
       </c>
       <c r="T11">
-        <v>0.008029523689316068</v>
+        <v>0.007722918467526985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H12">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N12">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O12">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P12">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q12">
-        <v>1264.687127563759</v>
+        <v>1508.163130747158</v>
       </c>
       <c r="R12">
-        <v>1264.687127563759</v>
+        <v>13573.46817672442</v>
       </c>
       <c r="S12">
-        <v>0.2034659656172655</v>
+        <v>0.2274022282683824</v>
       </c>
       <c r="T12">
-        <v>0.2034659656172655</v>
+        <v>0.2274022282683824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H13">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N13">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P13">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q13">
-        <v>279.3352345932668</v>
+        <v>334.6515557779584</v>
       </c>
       <c r="R13">
-        <v>279.3352345932668</v>
+        <v>3011.864002001625</v>
       </c>
       <c r="S13">
-        <v>0.04494013736577632</v>
+        <v>0.05045907032595851</v>
       </c>
       <c r="T13">
-        <v>0.04494013736577632</v>
+        <v>0.05045907032595851</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H14">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N14">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O14">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P14">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q14">
-        <v>46.02446822210572</v>
+        <v>56.75097928953235</v>
       </c>
       <c r="R14">
-        <v>46.02446822210572</v>
+        <v>510.7588136057911</v>
       </c>
       <c r="S14">
-        <v>0.007404529282172032</v>
+        <v>0.008556965015090295</v>
       </c>
       <c r="T14">
-        <v>0.007404529282172032</v>
+        <v>0.008556965015090292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H15">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N15">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O15">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P15">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q15">
-        <v>32.18884292498394</v>
+        <v>43.762524725588</v>
       </c>
       <c r="R15">
-        <v>32.18884292498394</v>
+        <v>393.862722530292</v>
       </c>
       <c r="S15">
-        <v>0.005178619964647469</v>
+        <v>0.006598553852936805</v>
       </c>
       <c r="T15">
-        <v>0.005178619964647469</v>
+        <v>0.006598553852936805</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H16">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N16">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O16">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P16">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q16">
-        <v>21.31989823216361</v>
+        <v>25.72588614538333</v>
       </c>
       <c r="R16">
-        <v>21.31989823216361</v>
+        <v>231.53297530845</v>
       </c>
       <c r="S16">
-        <v>0.003429997495922411</v>
+        <v>0.003878972847413843</v>
       </c>
       <c r="T16">
-        <v>0.003429997495922411</v>
+        <v>0.003878972847413842</v>
       </c>
     </row>
   </sheetData>
